--- a/biology/Microbiologie/Strongylidium/Strongylidium.xlsx
+++ b/biology/Microbiologie/Strongylidium/Strongylidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strongylidium est un genre de Ciliés de la famille des Strongylidiidae[1] ou des Urostylidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strongylidium est un genre de Ciliés de la famille des Strongylidiidae ou des Urostylidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Strongylidium est dérivé du grec ancien στρογγ / strong, « arrondir » (et non de l'anglais strong, fort), lui-même issu du grec ancien στρογγύλος / strongýlos, « arrondi, cylindrique », en référence à la forme générale de ce cilié.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Kahl (1932) a défini Strongylidium comme un genre avec deux rangées de cirres marginales disposées en spirale et deux rangées de cirres ventrales en spirale, une courte extrémité postérieure du corps en forme de queue ou aiguë et aucun cirre transversal[3],[4]. Kahl voit dans le genre Strongylidium un lien entre les genres Uroleptus (famille des Rigidothrichidae) et Stichotricha (famille des Spirofilidae).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Kahl (1932) a défini Strongylidium comme un genre avec deux rangées de cirres marginales disposées en spirale et deux rangées de cirres ventrales en spirale, une courte extrémité postérieure du corps en forme de queue ou aiguë et aucun cirre transversal,. Kahl voit dans le genre Strongylidium un lien entre les genres Uroleptus (famille des Rigidothrichidae) et Stichotricha (famille des Spirofilidae).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strongylidium est un genre marin et d'eau douce qui a rarement été observé. En 2018 deux nouvelles espèces ont été découvertes et étudiées en Chine[4] : Strongylidium guangdongense et Strongylidium wuhanense respectivement dans une mangrove de la réserve naturelle de Shenzhen et un étang d'eau douce du jardin botanique de Wuhan[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strongylidium est un genre marin et d'eau douce qui a rarement été observé. En 2018 deux nouvelles espèces ont été découvertes et étudiées en Chine : Strongylidium guangdongense et Strongylidium wuhanense respectivement dans une mangrove de la réserve naturelle de Shenzhen et un étang d'eau douce du jardin botanique de Wuhan.
 </t>
         </is>
       </c>
@@ -604,17 +622,19 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (16 octobre 2023)[1] :
-Strongylidium bacilliforme (Gelei, 1954) Stiller, 1975[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (16 octobre 2023) :
+Strongylidium bacilliforme (Gelei, 1954) Stiller, 1975
 Strongylidium californicum Kahl, 1932
 Strongylidium caudatum Kahl, 1932
-Strongylidium contortus (Gelei, 1954) Borror, 1972[5]
-Strongylidium coronatum Vuxanovici, 1963[5]
+Strongylidium contortus (Gelei, 1954) Borror, 1972
+Strongylidium coronatum Vuxanovici, 1963
 Strongylidium crassum Sterki, 1878
 Strongylidium crepidatum Wang, 1940
-Strongylidium deflectum (Tucolesco, 1962b) Borror, 1972[5]
+Strongylidium deflectum (Tucolesco, 1962b) Borror, 1972
 Strongylidium labiatum Kahl, 1932
 Strongylidium lanceolatum Kowalewski, 1882
 Strongylidium maritimum Wang &amp; Nie, 1932
@@ -625,7 +645,7 @@
 Strongylidium muscorum Kahl, 1932
 Strongylidium packii Calkins, 1902
 Strongylidium polystichum Kahl, 1932
-Strongylidium pseudocrassum Wang &amp; Nie, 1935[5]
+Strongylidium pseudocrassum Wang &amp; Nie, 1935
 </t>
         </is>
       </c>
@@ -654,9 +674,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Strongylidium Sterki (d), 1878[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Strongylidium Sterki (d), 1878.
 </t>
         </is>
       </c>
